--- a/Prototypes/Barley/Observations/ABlock99_00_LeafApp.xlsx
+++ b/Prototypes/Barley/Observations/ABlock99_00_LeafApp.xlsx
@@ -140,7 +140,7 @@
     <t>ABlock99_00SowNovPop400</t>
   </si>
   <si>
-    <t>Barley.Leaf.ExpandedCohortNo</t>
+    <t>Barley.Structure.LeafTipsAppeared</t>
   </si>
 </sst>
 </file>
